--- a/biology/Histoire de la zoologie et de la botanique/Rodolphe_Meyer_de_Schauensee/Rodolphe_Meyer_de_Schauensee.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rodolphe_Meyer_de_Schauensee/Rodolphe_Meyer_de_Schauensee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rodolphe Meyer de Schauensee est un ornithologue américain, né le 4 janvier 1901 à Rome et mort le 24 avril 1984.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est un baron suisse, Frederick Meyer de Schauensee, qui possédait un château près de Lucerne. Il commence à faire ses études à Rome et à Florence avant de partir aux États-Unis d'Amérique en 1913 et d’étudier à la Hoosac School de New York. Sa mère, Matilda Toland, originaire de Philadelphie, possédait une maison à Wynnewood, au nord-ouest de la ville.
 Très jeune, il manifeste un grand amour pour les oiseaux. Il rencontre James Bond (1900-1989) et ils se lient d’amitié. Ils empruntent de l’argent, en 1925, pour partir pendant six mois en Amazonie, à l’embouchure du fleuve, près de Belém, pour y récolter des spécimens vivants ou naturalisés et les revendre à l’Academy of Natural Sciences of Philadelphia. Débute alors une longue collaboration avec l’institution. Il contribue à enrichir les collections de peaux d’oiseaux qui passent de 80 000 spécimens à plus de 170 000.
@@ -546,7 +560,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Moucherolle de Schauensee (Nephelomyias lintoni) Meyer de Schauensee, 1951</t>
         </is>
